--- a/pred_ohlcv/54_21/2020-01-22 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2497.86934763721</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>6897.66734763721</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1301.30944763721</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3021.67254763721</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3087.54584763721</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1164.63014763721</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1165.73014763721</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-20067.30585236279</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-20067.30585236279</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11942.66720348462</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>211710.0027965154</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>211710.0027965154</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>220346.9463934602</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>210402.5759934602</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>208788.0269934602</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>210847.7463934602</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>211619.7028934602</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>210192.1584934602</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>324063.622743707</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>314520.646043707</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>330690.9028437071</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>437753.8562960682</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>422096.0418960682</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>424302.8039960682</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>417926.0270960682</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>413489.2440960682</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>470524.9201191754</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>484013.4381191754</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>483886.0190191754</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>468788.3850191754</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>468790.3850191754</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>470385.7606191754</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>470654.7606191754</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>470654.7606191754</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>471458.7606191754</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>474871.3270191754</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>478966.9954288958</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>482083.354133322</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>486175.3934288959</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>479725.422085695</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>478527.809485695</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>477823.220685695</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>477216.262685695</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>477588.406985695</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>485024.221085695</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>479625.133085695</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>477966.220085695</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>478817.821785695</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>475456.521485695</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>467366.183585695</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>473699.3171856951</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>468403.025285695</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>468503.025285695</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>461384.7438856951</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>461387.7438856951</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>461542.9348856951</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>452459.8287856951</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>463086.9704856951</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>463154.6813856951</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>460264.8925856951</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>462504.1340856951</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>452079.7827856951</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>495492.0198671696</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>495492.0198671696</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>495489.0198671696</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>495731.2945671696</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>487418.7940671696</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>489881.5313816873</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2497.86934763721</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>6897.66734763721</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1301.30944763721</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3303.30944763721</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3021.67254763721</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3087.54584763721</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1164.63014763721</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1165.73014763721</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-20067.30585236279</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-20067.30585236279</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -938,7 +938,7 @@
         <v>52037.92549651538</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>211710.0027965154</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>211710.0027965154</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>220346.9463934602</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>210402.5759934602</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>208788.0269934602</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>210847.7463934602</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>211619.7028934602</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>210192.1584934602</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>259163.1987468443</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>259163.1987468443</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>259305.7600950535</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>254687.6764950535</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>280844.0047530091</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>287980.0885530091</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>277133.8681530091</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>277133.8681530091</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>277133.8681530091</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>278299.9061530091</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>278299.9061530091</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>277810.6449937726</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>277809.6799937726</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>275100.7225937726</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>276340.0183937726</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>276310.0183937726</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>277455.7275937726</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>280823.2594937726</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>285392.2601937726</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>285192.2601937726</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>286127.7168937725</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>289486.9261937725</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>301829.9591937725</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>301829.9591937725</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>309276.426141631</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>303714.0623474664</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>305884.8940777201</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>305884.8940777201</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>305417.7710777201</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>305399.3048777201</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>304786.4050777201</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>304855.3901777201</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>304855.3901777201</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>301303.2043777201</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>330643.547643707</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>329227.517643707</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>328423.970843707</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>328423.970843707</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>324063.622743707</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>324064.859243707</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>324042.440543707</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>316960.660343707</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>318346.791443707</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>318346.791443707</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>314520.646043707</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>334242.3610437071</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>330690.9028437071</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>330688.9028437071</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>331018.7978437071</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>331008.7978437071</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>330980.0708437071</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>319073.6101437071</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>328530.8678437071</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>380462.4134960681</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>388099.4262960681</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>393079.5330960681</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>388815.8687960681</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>356748.1884960681</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>353240.5708960681</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>360336.3529960681</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>358314.0479960681</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>358078.2681960681</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>373861.9152960681</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>365691.2317960681</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>365704.5012960681</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>344080.9867960681</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>344995.3792960682</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>363374.2518960682</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>437753.8562960682</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>437753.8562960682</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>422096.0418960682</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>427571.1383960682</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>424302.8039960682</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>417926.0270960682</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>400419.4171960682</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>394965.2382960682</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>398315.4475960682</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>398407.1058960682</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>407819.2051960682</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>407817.4198960682</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>412002.2440960682</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>413489.2440960682</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>396699.6483960682</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>421024.6950960681</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>443054.6617960681</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>442419.5412191754</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>470721.2643191754</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>470524.9201191754</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>467972.8554191754</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>470626.1160191754</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>483953.9071191754</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>484013.4381191754</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>483886.0190191754</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>468788.3850191754</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>468790.3850191754</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>470385.7606191754</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>470654.7606191754</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>470654.7606191754</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>471458.7606191754</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>474871.3270191754</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>478966.9954288958</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>471136.9394288958</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>482083.354133322</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>486175.3934288959</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>479725.422085695</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>478527.809485695</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>478592.786085695</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>477823.220685695</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>477216.262685695</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>477588.406985695</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>477865.640085695</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>485024.221085695</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>479625.133085695</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>477966.220085695</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>478817.821785695</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>475456.521485695</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>467366.183585695</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>473699.3171856951</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>468403.025285695</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>461386.7438856951</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>495492.0198671696</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>495489.0198671696</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>495194.1729671696</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>491216.5308671696</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
